--- a/HistoryTracking/History Tracking POC Estimation.xlsx
+++ b/HistoryTracking/History Tracking POC Estimation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_projects\HistoryTracking\HistoryTracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669ACD2D-2336-42BB-920F-194F84EEBA25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18435DCD-7053-48D1-BA69-3C8B46C4FFDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="101">
   <si>
     <t>Subtotal:</t>
   </si>
@@ -369,38 +369,62 @@
     <t>Add visitor classes to make a specific mapping logic for different data types</t>
   </si>
   <si>
-    <t>Add entities and EF context</t>
-  </si>
-  <si>
     <t>POC front</t>
   </si>
   <si>
-    <t>Add list pages for entities</t>
-  </si>
-  <si>
     <t>Add project</t>
   </si>
   <si>
     <t>Create infrastructure classes and projects</t>
   </si>
   <si>
-    <t>Add add/edit pages layout for entities</t>
-  </si>
-  <si>
-    <t>Add add/edit pages save logic for entities</t>
-  </si>
-  <si>
     <t>Display historical changes of entity layout</t>
   </si>
   <si>
-    <t>Display historical changes of entity logic</t>
+    <t>Add entities User, Organization, Subscription and EF context</t>
+  </si>
+  <si>
+    <t>Create CRU Service for Users</t>
+  </si>
+  <si>
+    <t>Create CRU Service for Subscriptions</t>
+  </si>
+  <si>
+    <t>Add DI</t>
+  </si>
+  <si>
+    <t>Add simple Authentication system</t>
+  </si>
+  <si>
+    <t>Add infrostructure to make requests to server with authentication</t>
+  </si>
+  <si>
+    <t>List page for users</t>
+  </si>
+  <si>
+    <t>List page for subscriptions</t>
+  </si>
+  <si>
+    <t>Add/Edit page for users</t>
+  </si>
+  <si>
+    <t>Edit page for organization</t>
+  </si>
+  <si>
+    <t>Add/Edit page for subscription</t>
+  </si>
+  <si>
+    <t>Display historical changes of entity logic with filtration</t>
+  </si>
+  <si>
+    <t>Filter History changes view model fields by UserRole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,12 +583,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1498,7 +1516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -1768,7 +1786,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2218,7 +2241,7 @@
   <dimension ref="A2:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,18 +2266,18 @@
       <c r="B4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
     </row>
     <row r="5" spans="2:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="107">
+      <c r="C5" s="108">
         <f>'Project Estimation'!G94</f>
-        <v>272</v>
-      </c>
-      <c r="D5" s="108"/>
+        <v>251</v>
+      </c>
+      <c r="D5" s="109"/>
     </row>
     <row r="6" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -2275,40 +2298,40 @@
       <c r="B9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="99">
+      <c r="C9" s="100">
         <v>30</v>
       </c>
-      <c r="D9" s="99"/>
+      <c r="D9" s="100"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="112"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="105" t="s">
-        <v>53</v>
+      <c r="C11" s="106" t="s">
+        <v>52</v>
       </c>
       <c r="D11" s="58">
         <f>IF(C11=Lists!A15,Lists!B15,IF(C11=Lists!A16,Lists!B16,IF(C11=Lists!A17,Lists!B17,IF(C11=Lists!A17,Lists!B17,0))))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="106"/>
+      <c r="C12" s="107"/>
       <c r="D12" s="63">
         <f>IF(C11=Lists!A15,Lists!C15,IF(C11=Lists!A16,Lists!C16,IF(C11=Lists!A17,Lists!C17,IF(C11=Lists!A17,Lists!C17,0))))</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -2339,32 +2362,32 @@
       <c r="B15" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="109">
+      <c r="C15" s="110">
         <f>TQA/(Duration*8)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="109"/>
+      <c r="D15" s="110"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="109">
+      <c r="C16" s="110">
         <f>IF(C10="No",(TDev+TBuild+TPM)/(Duration*8), (TDev+TBuild)/(Duration*8))</f>
-        <v>1.1333333333333333</v>
-      </c>
-      <c r="D16" s="109"/>
+        <v>1.0458333333333334</v>
+      </c>
+      <c r="D16" s="110"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
@@ -2380,29 +2403,29 @@
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
     </row>
     <row r="27" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
@@ -2446,33 +2469,33 @@
       </c>
     </row>
     <row r="35" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="103"/>
-      <c r="C35" s="104"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="105"/>
       <c r="D35" s="89"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="95"/>
-      <c r="C36" s="96"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="97"/>
       <c r="D36" s="91"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="95"/>
-      <c r="C37" s="96"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="97"/>
       <c r="D37" s="91"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="95"/>
-      <c r="C38" s="96"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="97"/>
       <c r="D38" s="91"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="95"/>
-      <c r="C39" s="96"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="97"/>
       <c r="D39" s="93"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="97"/>
-      <c r="C40" s="98"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="99"/>
       <c r="D40" s="93"/>
     </row>
     <row r="42" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2483,29 +2506,29 @@
       <c r="D42" s="51"/>
     </row>
     <row r="43" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="112"/>
-      <c r="C43" s="112"/>
-      <c r="D43" s="112"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="113"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="114"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="113"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
     </row>
     <row r="49" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="5" t="s">
@@ -2616,8 +2639,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2655,15 +2678,15 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="119"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="14"/>
@@ -2785,15 +2808,15 @@
       <c r="H13" s="43"/>
     </row>
     <row r="14" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="18"/>
@@ -2875,15 +2898,15 @@
       <c r="H19" s="43"/>
     </row>
     <row r="20" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="125"/>
     </row>
     <row r="21" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B21" s="18"/>
@@ -2908,34 +2931,34 @@
         <v>1</v>
       </c>
       <c r="E22" s="82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="82">
         <v>2</v>
       </c>
       <c r="G22" s="35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" s="25"/>
     </row>
-    <row r="23" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="30" x14ac:dyDescent="0.2">
       <c r="B23" s="23"/>
       <c r="C23" s="83" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D23" s="81">
+        <v>4</v>
+      </c>
+      <c r="E23" s="82">
         <v>5</v>
       </c>
-      <c r="E23" s="82">
+      <c r="F23" s="82">
         <v>6</v>
       </c>
-      <c r="F23" s="82">
-        <v>7</v>
-      </c>
       <c r="G23" s="35">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H23" s="25"/>
     </row>
@@ -2991,11 +3014,11 @@
         <v>9</v>
       </c>
       <c r="F26" s="82">
+        <v>13</v>
+      </c>
+      <c r="G26" s="35">
+        <f t="shared" si="1"/>
         <v>11</v>
-      </c>
-      <c r="G26" s="35">
-        <f t="shared" si="1"/>
-        <v>10</v>
       </c>
       <c r="H26" s="25"/>
     </row>
@@ -3011,51 +3034,57 @@
         <v>16</v>
       </c>
       <c r="F27" s="82">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" s="35">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="25"/>
     </row>
     <row r="28" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="23"/>
       <c r="C28" s="83" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="81">
+        <v>3</v>
+      </c>
+      <c r="E28" s="82">
         <v>6</v>
       </c>
-      <c r="E28" s="82">
+      <c r="F28" s="82">
         <v>8</v>
       </c>
-      <c r="F28" s="82">
-        <v>10</v>
-      </c>
       <c r="G28" s="35">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H28" s="25"/>
     </row>
     <row r="29" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="23"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
+      <c r="C29" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="81">
+        <v>3</v>
+      </c>
+      <c r="E29" s="82">
+        <v>5</v>
+      </c>
+      <c r="F29" s="82">
+        <v>7</v>
+      </c>
       <c r="G29" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H29" s="25"/>
     </row>
     <row r="30" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="23"/>
-      <c r="C30" s="84" t="s">
-        <v>85</v>
-      </c>
+      <c r="C30" s="83"/>
       <c r="D30" s="81"/>
       <c r="E30" s="82"/>
       <c r="F30" s="82"/>
@@ -3065,135 +3094,119 @@
       </c>
       <c r="H30" s="25"/>
     </row>
-    <row r="31" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="23"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
+      <c r="C31" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="81">
+        <v>3</v>
+      </c>
+      <c r="E31" s="82">
+        <v>5</v>
+      </c>
+      <c r="F31" s="82">
+        <v>7</v>
+      </c>
       <c r="G31" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H31" s="25"/>
     </row>
-    <row r="32" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" ht="30" x14ac:dyDescent="0.2">
       <c r="B32" s="23"/>
       <c r="C32" s="83" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D32" s="81">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E32" s="82">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F32" s="82">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G32" s="35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="23"/>
       <c r="C33" s="83" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D33" s="81">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E33" s="82">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F33" s="82">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G33" s="35">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H33" s="25"/>
     </row>
     <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="23"/>
       <c r="C34" s="83" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D34" s="81">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E34" s="82">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F34" s="82">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G34" s="35">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="23"/>
-      <c r="C35" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="81">
-        <v>12</v>
-      </c>
-      <c r="E35" s="82">
-        <v>16</v>
-      </c>
-      <c r="F35" s="82">
-        <v>18</v>
-      </c>
+      <c r="C35" s="83"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
       <c r="G35" s="35">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H35" s="25"/>
     </row>
     <row r="36" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B36" s="23"/>
-      <c r="C36" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="81">
-        <v>12</v>
-      </c>
-      <c r="E36" s="82">
-        <v>18</v>
-      </c>
-      <c r="F36" s="82">
-        <v>22</v>
-      </c>
+      <c r="C36" s="83"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
       <c r="G36" s="35">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H36" s="25"/>
     </row>
     <row r="37" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B37" s="23"/>
-      <c r="C37" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="81">
-        <v>8</v>
-      </c>
-      <c r="E37" s="82">
-        <v>10</v>
-      </c>
-      <c r="F37" s="82">
-        <v>15</v>
-      </c>
+      <c r="C37" s="83"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
       <c r="G37" s="35">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H37" s="25"/>
     </row>
@@ -3271,7 +3284,9 @@
     </row>
     <row r="44" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B44" s="23"/>
-      <c r="C44" s="84"/>
+      <c r="C44" s="84" t="s">
+        <v>84</v>
+      </c>
       <c r="D44" s="81"/>
       <c r="E44" s="82"/>
       <c r="F44" s="82"/>
@@ -3283,48 +3298,81 @@
     </row>
     <row r="45" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B45" s="23"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
+      <c r="C45" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="81">
+        <v>1</v>
+      </c>
+      <c r="E45" s="82">
+        <v>1</v>
+      </c>
+      <c r="F45" s="82">
+        <v>2</v>
+      </c>
       <c r="G45" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="25"/>
     </row>
     <row r="46" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B46" s="23"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
+      <c r="C46" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="81">
+        <v>5</v>
+      </c>
+      <c r="E46" s="82">
+        <v>7</v>
+      </c>
+      <c r="F46" s="82">
+        <v>8</v>
+      </c>
       <c r="G46" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H46" s="25"/>
     </row>
-    <row r="47" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="30" x14ac:dyDescent="0.2">
       <c r="B47" s="23"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
+      <c r="C47" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="81">
+        <v>4</v>
+      </c>
+      <c r="E47" s="82">
+        <v>6</v>
+      </c>
+      <c r="F47" s="82">
+        <v>7</v>
+      </c>
       <c r="G47" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H47" s="25"/>
     </row>
     <row r="48" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B48" s="23"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
+      <c r="C48" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="81">
+        <v>3</v>
+      </c>
+      <c r="E48" s="82">
+        <v>4</v>
+      </c>
+      <c r="F48" s="82">
+        <v>5</v>
+      </c>
       <c r="G48" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H48" s="25"/>
     </row>
@@ -3342,73 +3390,121 @@
     </row>
     <row r="50" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B50" s="23"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="82"/>
+      <c r="C50" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="81">
+        <v>3</v>
+      </c>
+      <c r="E50" s="82">
+        <v>4</v>
+      </c>
+      <c r="F50" s="82">
+        <v>5</v>
+      </c>
       <c r="G50" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H50" s="25"/>
     </row>
     <row r="51" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B51" s="23"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
+      <c r="C51" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="81">
+        <v>4</v>
+      </c>
+      <c r="E51" s="82">
+        <v>6</v>
+      </c>
+      <c r="F51" s="82">
+        <v>8</v>
+      </c>
       <c r="G51" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H51" s="25"/>
     </row>
     <row r="52" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B52" s="23"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
+      <c r="C52" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="94">
+        <v>3</v>
+      </c>
+      <c r="E52" s="95">
+        <v>5</v>
+      </c>
+      <c r="F52" s="95">
+        <v>7</v>
+      </c>
       <c r="G52" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H52" s="25"/>
     </row>
     <row r="53" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B53" s="23"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82"/>
+      <c r="C53" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="81">
+        <v>5</v>
+      </c>
+      <c r="E53" s="82">
+        <v>7</v>
+      </c>
+      <c r="F53" s="82">
+        <v>9</v>
+      </c>
       <c r="G53" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H53" s="25"/>
     </row>
     <row r="54" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B54" s="23"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82"/>
+      <c r="C54" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="81">
+        <v>5</v>
+      </c>
+      <c r="E54" s="82">
+        <v>7</v>
+      </c>
+      <c r="F54" s="82">
+        <v>8</v>
+      </c>
       <c r="G54" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H54" s="25"/>
     </row>
-    <row r="55" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" ht="30" x14ac:dyDescent="0.2">
       <c r="B55" s="23"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
+      <c r="C55" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="81">
+        <v>6</v>
+      </c>
+      <c r="E55" s="82">
+        <v>8</v>
+      </c>
+      <c r="F55" s="82">
+        <v>9</v>
+      </c>
       <c r="G55" s="35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H55" s="25"/>
     </row>
@@ -3486,10 +3582,10 @@
     </row>
     <row r="62" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B62" s="23"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="82"/>
       <c r="G62" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3498,7 +3594,7 @@
     </row>
     <row r="63" spans="2:8" ht="15" x14ac:dyDescent="0.2">
       <c r="B63" s="23"/>
-      <c r="C63" s="84"/>
+      <c r="C63" s="83"/>
       <c r="D63" s="81"/>
       <c r="E63" s="82"/>
       <c r="F63" s="82"/>
@@ -3623,19 +3719,19 @@
       </c>
       <c r="D73" s="48">
         <f>ROUNDUP(SUM(D21:D72)*UnitT,0)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E73" s="48">
         <f>ROUNDUP(SUM(E21:E72)*UnitT,0)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F73" s="48">
         <f>ROUNDUP(SUM(F21:F72)*UnitT,0)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G73" s="35">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H73" s="25"/>
     </row>
@@ -3650,15 +3746,15 @@
       </c>
       <c r="E74" s="48">
         <f>ROUNDUP(SUM(E21:E73)*15%,0)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F74" s="48">
         <f>ROUNDUP(SUM(F21:F73)*15%,0)</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G74" s="35">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H74" s="25"/>
     </row>
@@ -3669,32 +3765,32 @@
       </c>
       <c r="D75" s="42">
         <f>SUM(D21:D74)</f>
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E75" s="42">
         <f>SUM(E21:E74)</f>
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F75" s="42">
         <f>SUM(F21:F74)</f>
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="G75" s="42">
         <f>SUM(G21:G74)</f>
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="H75" s="43"/>
     </row>
     <row r="76" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="119" t="s">
+      <c r="B76" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="C76" s="120"/>
-      <c r="D76" s="120"/>
-      <c r="E76" s="120"/>
-      <c r="F76" s="120"/>
-      <c r="G76" s="120"/>
-      <c r="H76" s="121"/>
+      <c r="C76" s="121"/>
+      <c r="D76" s="121"/>
+      <c r="E76" s="121"/>
+      <c r="F76" s="121"/>
+      <c r="G76" s="121"/>
+      <c r="H76" s="122"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="18"/>
@@ -3776,15 +3872,15 @@
       <c r="H81" s="43"/>
     </row>
     <row r="82" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="119" t="s">
+      <c r="B82" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="C82" s="120"/>
-      <c r="D82" s="120"/>
-      <c r="E82" s="120"/>
-      <c r="F82" s="120"/>
-      <c r="G82" s="120"/>
-      <c r="H82" s="121"/>
+      <c r="C82" s="121"/>
+      <c r="D82" s="121"/>
+      <c r="E82" s="121"/>
+      <c r="F82" s="121"/>
+      <c r="G82" s="121"/>
+      <c r="H82" s="122"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83" s="36"/>
@@ -3856,15 +3952,15 @@
       <c r="H85" s="43"/>
     </row>
     <row r="86" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="119" t="s">
+      <c r="B86" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="120"/>
-      <c r="D86" s="120"/>
-      <c r="E86" s="120"/>
-      <c r="F86" s="120"/>
-      <c r="G86" s="120"/>
-      <c r="H86" s="121"/>
+      <c r="C86" s="121"/>
+      <c r="D86" s="121"/>
+      <c r="E86" s="121"/>
+      <c r="F86" s="121"/>
+      <c r="G86" s="121"/>
+      <c r="H86" s="122"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" s="18"/>
@@ -3933,15 +4029,15 @@
       <c r="H89" s="43"/>
     </row>
     <row r="90" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="119" t="s">
+      <c r="B90" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="C90" s="120"/>
-      <c r="D90" s="120"/>
-      <c r="E90" s="120"/>
-      <c r="F90" s="120"/>
-      <c r="G90" s="120"/>
-      <c r="H90" s="121"/>
+      <c r="C90" s="121"/>
+      <c r="D90" s="121"/>
+      <c r="E90" s="121"/>
+      <c r="F90" s="121"/>
+      <c r="G90" s="121"/>
+      <c r="H90" s="122"/>
     </row>
     <row r="91" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B91" s="36"/>
@@ -3950,19 +4046,19 @@
       </c>
       <c r="D91" s="49">
         <f>ROUND(PM*Duration+PMDevel*(TDevMin+TBuildMin+TQAMin)/8,0)</f>
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E91" s="49">
         <f>ROUND(PM*Duration+PMDevel*(TDevMid+TBuildMid+TQAMid)/8,0)</f>
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F91" s="49">
         <f>ROUND(PM*Duration+PMDevel*(TDevMax+TBuildMax+TQAMax)/8,0)</f>
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="G91" s="39">
         <f>ROUND((D91+4*E91+F91)/6 + 1.645*(F91-D91)/6,  0)</f>
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="H91" s="25"/>
     </row>
@@ -3973,19 +4069,19 @@
       </c>
       <c r="D92" s="46">
         <f>SUM(D91:D91)</f>
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="E92" s="46">
         <f>SUM(E91:E91)</f>
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F92" s="46">
         <f>SUM(F91:F91)</f>
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="G92" s="46">
         <f>SUM(G91:G91)</f>
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="H92" s="47"/>
     </row>
@@ -3999,25 +4095,25 @@
       <c r="H93" s="29"/>
     </row>
     <row r="94" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="114" t="s">
+      <c r="B94" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="C94" s="115"/>
+      <c r="C94" s="116"/>
       <c r="D94" s="32">
         <f>D92+D89+D85+D81+D75+D19+D13</f>
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="E94" s="32">
         <f>E92+E89+E85+E81+E75+E19+E13</f>
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="F94" s="32">
         <f>F92+F89+F85+F81+F75+F19+F13</f>
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="G94" s="33">
         <f>G92+G89+G85+G81+G75+G19+G13</f>
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="H94" s="31"/>
     </row>
@@ -4224,19 +4320,19 @@
       </c>
       <c r="B2" s="70">
         <f>'Project Estimation'!D92/(TDevMin+TQAMin+TBuildMin)</f>
-        <v>0.55384615384615388</v>
+        <v>0.296875</v>
       </c>
       <c r="C2" s="68">
         <f>'Project Estimation'!E92/(TDevMid+TQAMid+TBuildMid)</f>
-        <v>0.44444444444444442</v>
+        <v>0.22777777777777777</v>
       </c>
       <c r="D2" s="68">
         <f>'Project Estimation'!F92/(TDevMax+TQAMax+TBuildMax)</f>
-        <v>0.37735849056603776</v>
+        <v>0.19469026548672566</v>
       </c>
       <c r="E2" s="69">
         <f>'Project Estimation'!G92/(TDev+TQA+TBuild)</f>
-        <v>0.40206185567010311</v>
+        <v>0.20673076923076922</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4245,19 +4341,19 @@
       </c>
       <c r="B3" s="71">
         <f>TPMMin/(8*Duration)</f>
-        <v>0.3</v>
+        <v>0.15833333333333333</v>
       </c>
       <c r="C3" s="64">
         <f>TPMMid/(8*Duration)</f>
-        <v>0.31666666666666665</v>
+        <v>0.17083333333333334</v>
       </c>
       <c r="D3" s="64">
         <f>TPMMax/(8*Duration)</f>
-        <v>0.33333333333333331</v>
+        <v>0.18333333333333332</v>
       </c>
       <c r="E3" s="65">
         <f>TPM/(8*Duration)</f>
-        <v>0.32500000000000001</v>
+        <v>0.17916666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4266,19 +4362,19 @@
       </c>
       <c r="B4" s="72">
         <f>8*B3</f>
-        <v>2.4</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="C4" s="66">
         <f t="shared" ref="C4:E4" si="0">8*C3</f>
-        <v>2.5333333333333332</v>
+        <v>1.3666666666666667</v>
       </c>
       <c r="D4" s="66">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>1.4666666666666666</v>
       </c>
       <c r="E4" s="67">
         <f t="shared" si="0"/>
-        <v>2.6</v>
+        <v>1.4333333333333333</v>
       </c>
     </row>
   </sheetData>
